--- a/results/java/java_overall.xlsx
+++ b/results/java/java_overall.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF2A109-F938-4BC0-8132-5ABE6720692A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61062FBB-F68D-4148-B15A-D9ACC94526B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +113,119 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,8 +237,176 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -150,19 +429,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,7 +894,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,10 +965,10 @@
         <v>11.341215103351725</v>
       </c>
       <c r="F3" s="1">
-        <v>16.827885286167419</v>
+        <v>16.827971899932589</v>
       </c>
       <c r="G3" s="1">
-        <v>5.3991022431659381E-2</v>
+        <v>5.3991300325503956E-2</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>5</v>
@@ -532,10 +983,10 @@
         <v>11.251460885956645</v>
       </c>
       <c r="O3" s="1">
-        <v>12.059157913044759</v>
+        <v>12.060294657913481</v>
       </c>
       <c r="P3" s="1">
-        <v>0.16556719384585963</v>
+        <v>0.16558280087741112</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -552,10 +1003,10 @@
         <v>85.73737956024047</v>
       </c>
       <c r="F4" s="1">
-        <v>33.466417060347034</v>
+        <v>33.466589313267654</v>
       </c>
       <c r="G4" s="1">
-        <v>0.10737451815753295</v>
+        <v>0.10737507081825906</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>6</v>
@@ -570,10 +1021,10 @@
         <v>73.598303487276155</v>
       </c>
       <c r="O4" s="1">
-        <v>19.453596324071821</v>
+        <v>19.45543009853262</v>
       </c>
       <c r="P4" s="1">
-        <v>0.26708974016357978</v>
+        <v>0.26711491711986562</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -590,10 +1041,10 @@
         <v>8.6689450712344556</v>
       </c>
       <c r="F5" s="1">
-        <v>6.2425655968937361</v>
+        <v>6.2425977276161326</v>
       </c>
       <c r="G5" s="1">
-        <v>2.0028808934777147E-2</v>
+        <v>2.0028912023817992E-2</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>7</v>
@@ -608,10 +1059,10 @@
         <v>4.0071630537229028</v>
       </c>
       <c r="O5" s="1">
-        <v>2.3911448247331193</v>
+        <v>2.3913702236896208</v>
       </c>
       <c r="P5" s="1">
-        <v>3.2829418236729496E-2</v>
+        <v>3.2832512870118735E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -706,10 +1157,10 @@
         <v>7.6979904915077499</v>
       </c>
       <c r="F10" s="1">
-        <v>11.835295383445155</v>
+        <v>11.835399972019646</v>
       </c>
       <c r="G10" s="1">
-        <v>4.9755809005011351E-2</v>
+        <v>4.9756248697386388E-2</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>5</v>
@@ -724,10 +1175,10 @@
         <v>11.284793814432989</v>
       </c>
       <c r="O10" s="1">
-        <v>13.827455718913674</v>
+        <v>13.831912594361857</v>
       </c>
       <c r="P10" s="1">
-        <v>0.35099135344384824</v>
+        <v>0.35110448522871801</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -744,10 +1195,10 @@
         <v>72.967833725102068</v>
       </c>
       <c r="F11" s="1">
-        <v>28.157860118745344</v>
+        <v>28.158108949919825</v>
       </c>
       <c r="G11" s="1">
-        <v>0.11837618451144184</v>
+        <v>0.1183772306024764</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>6</v>
@@ -762,10 +1213,10 @@
         <v>73.744845360824741</v>
       </c>
       <c r="O11" s="1">
-        <v>20.003430098304047</v>
+        <v>20.009877618245298</v>
       </c>
       <c r="P11" s="1">
-        <v>0.50776015099578575</v>
+        <v>0.50792381261195996</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -782,10 +1233,10 @@
         <v>4.4476767819586076</v>
       </c>
       <c r="F12" s="1">
-        <v>2.6009677552876411</v>
+        <v>2.6009907400548991</v>
       </c>
       <c r="G12" s="1">
-        <v>1.0934518376390015E-2</v>
+        <v>1.0934615004792828E-2</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>7</v>
@@ -800,10 +1251,10 @@
         <v>4.9600515463917523</v>
       </c>
       <c r="O12" s="1">
-        <v>2.6042099139073804</v>
+        <v>2.6050493047152883</v>
       </c>
       <c r="P12" s="1">
-        <v>6.6104363732220284E-2</v>
+        <v>6.6125670538166717E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -898,10 +1349,10 @@
         <v>16.149425287356323</v>
       </c>
       <c r="F17" s="1">
-        <v>11.242679879948001</v>
+        <v>11.24986599757529</v>
       </c>
       <c r="G17" s="1">
-        <v>0.40178060081536426</v>
+        <v>0.40203741170819873</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>5</v>
@@ -916,10 +1367,10 @@
         <v>12.255259012139746</v>
       </c>
       <c r="O17" s="1">
-        <v>13.490103488745529</v>
+        <v>13.490416030963672</v>
       </c>
       <c r="P17" s="1">
-        <v>9.1826797264275228E-2</v>
+        <v>9.1828924731342174E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -936,10 +1387,10 @@
         <v>66.722860791826307</v>
       </c>
       <c r="F18" s="1">
-        <v>25.639928870415815</v>
+        <v>25.656317449187561</v>
       </c>
       <c r="G18" s="1">
-        <v>0.91629630447740862</v>
+        <v>0.91688198450172087</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>6</v>
@@ -954,10 +1405,10 @@
         <v>75.567000278009459</v>
       </c>
       <c r="O18" s="1">
-        <v>27.194415165251439</v>
+        <v>27.1950452125186</v>
       </c>
       <c r="P18" s="1">
-        <v>0.18511170430852586</v>
+        <v>0.18511599302452547</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -974,10 +1425,10 @@
         <v>7.9259259259259256</v>
       </c>
       <c r="F19" s="1">
-        <v>5.5850218986873266</v>
+        <v>5.5885917436658819</v>
       </c>
       <c r="G19" s="1">
-        <v>0.19959239949754212</v>
+        <v>0.19971997534917335</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>7</v>
@@ -992,10 +1443,10 @@
         <v>9.3811509591326097</v>
       </c>
       <c r="O19" s="1">
-        <v>4.384096985258755</v>
+        <v>4.3841985571553277</v>
       </c>
       <c r="P19" s="1">
-        <v>2.9842438598646541E-2</v>
+        <v>2.9843129996007731E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1012,10 +1463,10 @@
         <v>0.36909323116219667</v>
       </c>
       <c r="F20" s="1">
-        <v>0.94303391819898141</v>
+        <v>0.94363668842236781</v>
       </c>
       <c r="G20" s="1">
-        <v>3.3701282815944256E-2</v>
+        <v>3.3722824066348238E-2</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>8</v>
@@ -1090,10 +1541,10 @@
         <v>6.7940388479571334</v>
       </c>
       <c r="F24" s="1">
-        <v>6.7326799916445381</v>
+        <v>6.73380764930116</v>
       </c>
       <c r="G24" s="1">
-        <v>0.12320918107308468</v>
+        <v>0.12322981739867503</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>5</v>
@@ -1108,10 +1559,10 @@
         <v>6.4846262656343061</v>
       </c>
       <c r="O24" s="1">
-        <v>5.1448988345310616</v>
+        <v>5.1449945954467173</v>
       </c>
       <c r="P24" s="1">
-        <v>3.1390013331077431E-2</v>
+        <v>3.1390597586767523E-2</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -1128,10 +1579,10 @@
         <v>57.847622237106499</v>
       </c>
       <c r="F25" s="1">
-        <v>23.897888296026036</v>
+        <v>23.901890957187341</v>
       </c>
       <c r="G25" s="1">
-        <v>0.43733539244157782</v>
+        <v>0.43740864181692457</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>6</v>
@@ -1146,10 +1597,10 @@
         <v>64.976958010720665</v>
       </c>
       <c r="O25" s="1">
-        <v>18.279510738605321</v>
+        <v>18.279850971278954</v>
       </c>
       <c r="P25" s="1">
-        <v>0.11152679658524194</v>
+        <v>0.11152887240995774</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1166,10 +1617,10 @@
         <v>3.5445411922304086</v>
       </c>
       <c r="F26" s="1">
-        <v>2.0264969512222923</v>
+        <v>2.0268363695231777</v>
       </c>
       <c r="G26" s="1">
-        <v>3.7085236505680616E-2</v>
+        <v>3.7091447917918415E-2</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>7</v>
@@ -1184,10 +1635,10 @@
         <v>1.3028588445503275E-3</v>
       </c>
       <c r="O26" s="1">
-        <v>3.6071614926164654E-2</v>
+        <v>3.6072286319516707E-2</v>
       </c>
       <c r="P26" s="1">
-        <v>2.2007983243639502E-4</v>
+        <v>2.2008392873584603E-4</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -1222,10 +1673,10 @@
         <v>2.0328692674210838</v>
       </c>
       <c r="O27" s="1">
-        <v>1.0349386412958448</v>
+        <v>1.0349579043902468</v>
       </c>
       <c r="P27" s="1">
-        <v>6.3143589003309868E-3</v>
+        <v>6.3144764281599149E-3</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -1282,10 +1733,10 @@
         <v>11.938989513822689</v>
       </c>
       <c r="F31" s="1">
-        <v>23.179884596014322</v>
+        <v>23.185410852999745</v>
       </c>
       <c r="G31" s="1">
-        <v>0.50606759321841865</v>
+        <v>0.50618824349864477</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>5</v>
@@ -1300,10 +1751,10 @@
         <v>8.0226078676035986</v>
       </c>
       <c r="O31" s="1">
-        <v>11.418704425056442</v>
+        <v>11.418798163522922</v>
       </c>
       <c r="P31" s="1">
-        <v>4.6267886526358687E-2</v>
+        <v>4.6268266348847197E-2</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -1320,10 +1771,10 @@
         <v>65.124880838894185</v>
       </c>
       <c r="F32" s="1">
-        <v>28.777799021147011</v>
+        <v>28.784659862589372</v>
       </c>
       <c r="G32" s="1">
-        <v>0.62828231212416652</v>
+        <v>0.62843209930286481</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>6</v>
@@ -1338,10 +1789,10 @@
         <v>72.888257700137913</v>
       </c>
       <c r="O32" s="1">
-        <v>25.420041759399894</v>
+        <v>25.420250437691557</v>
       </c>
       <c r="P32" s="1">
-        <v>0.1030004424178271</v>
+        <v>0.10300128796940282</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -1358,10 +1809,10 @@
         <v>6.7106768350810295</v>
       </c>
       <c r="F33" s="1">
-        <v>4.8450431087740613</v>
+        <v>4.8461982031065469</v>
       </c>
       <c r="G33" s="1">
-        <v>0.1057778909528467</v>
+        <v>0.10580310918921712</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>7</v>
@@ -1376,10 +1827,10 @@
         <v>5.5378603795888881E-2</v>
       </c>
       <c r="O33" s="1">
-        <v>0.58418508482178866</v>
+        <v>0.58418988051593701</v>
       </c>
       <c r="P33" s="1">
-        <v>2.367081956829979E-3</v>
+        <v>2.3671013886870807E-3</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -1396,10 +1847,10 @@
         <v>6.6730219256434702E-3</v>
       </c>
       <c r="F34" s="1">
-        <v>9.238544472515324E-2</v>
+        <v>9.2407470102680411E-2</v>
       </c>
       <c r="G34" s="1">
-        <v>2.0169763773763812E-3</v>
+        <v>2.0174572395544794E-3</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>8</v>
@@ -1414,10 +1865,10 @@
         <v>1.8523018322716227</v>
       </c>
       <c r="O34" s="1">
-        <v>0.93557938296030063</v>
+        <v>0.93558706332169417</v>
       </c>
       <c r="P34" s="1">
-        <v>3.7909099943266027E-3</v>
+        <v>3.790941114677582E-3</v>
       </c>
     </row>
   </sheetData>
